--- a/public/excel/1/202001/广东省女子监狱电商商品信息表202001.xlsx
+++ b/public/excel/1/202001/广东省女子监狱电商商品信息表202001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>广东省女子监狱电商商品信息表</t>
   </si>
@@ -74,43 +74,52 @@
     <t>欧标无线胶本B5 40页</t>
   </si>
   <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>40页</t>
+  </si>
+  <si>
+    <t>10254.jpg</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>信纸</t>
+  </si>
+  <si>
+    <t>欧标草稿纸信纸40页</t>
+  </si>
+  <si>
+    <t>10255.jpg</t>
+  </si>
+  <si>
+    <t>中性笔</t>
+  </si>
+  <si>
+    <t>晨光Q7-A中性笔0.5mm 黑色</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>单支</t>
+  </si>
+  <si>
+    <t>10086.jpg</t>
+  </si>
+  <si>
+    <t>邮票</t>
+  </si>
+  <si>
+    <t>中国邮票面值120分 个</t>
+  </si>
+  <si>
     <t>个</t>
   </si>
   <si>
-    <t>40页</t>
-  </si>
-  <si>
-    <t>10254.jpg</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>信纸</t>
-  </si>
-  <si>
-    <t>欧标草稿纸信纸40页</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>10255.jpg</t>
-  </si>
-  <si>
-    <t>中性笔</t>
-  </si>
-  <si>
-    <t>晨光 Q7-A 中性笔 0.5mm 黑色</t>
-  </si>
-  <si>
-    <t>10086.jpg</t>
-  </si>
-  <si>
-    <t>邮票</t>
-  </si>
-  <si>
-    <t>中国邮政 邮票面值120分</t>
+    <t>1个</t>
   </si>
   <si>
     <t>10009.jpg</t>
@@ -119,22 +128,22 @@
     <t>信封</t>
   </si>
   <si>
-    <t xml:space="preserve">佛山牛皮信封  8# </t>
+    <t>佛山牛皮邮局标准信封8#</t>
   </si>
   <si>
     <t>10006.jpg</t>
   </si>
   <si>
-    <t>佛山牛皮信封  9# 324*228mm</t>
-  </si>
-  <si>
-    <t>佛山牛皮信封  9# 324*228mm个</t>
+    <t>佛山牛皮邮局标准信封 9#</t>
   </si>
   <si>
     <t>10005.jpg</t>
   </si>
   <si>
-    <t>渡边无线笔记本软面抄B5 60页</t>
+    <t>渡边无线软抄本 B5 50页</t>
+  </si>
+  <si>
+    <t>50页</t>
   </si>
   <si>
     <t>10004.jpg</t>
@@ -158,7 +167,10 @@
     <t>冬服</t>
   </si>
   <si>
-    <t>出监用冬服运动冬装套装 XL码</t>
+    <t>出监用冬服 运动冬装套装  XL码</t>
+  </si>
+  <si>
+    <t>件</t>
   </si>
   <si>
     <t>XL码</t>
@@ -167,7 +179,7 @@
     <t>10235.jpg</t>
   </si>
   <si>
-    <t>出监用冬服运动冬装套装 L码</t>
+    <t>出监用冬服 运动冬装套装  L码</t>
   </si>
   <si>
     <t>L码</t>
@@ -182,13 +194,22 @@
     <t>药皂</t>
   </si>
   <si>
-    <t>纳爱斯90g纳爱斯硫磺药皂</t>
+    <t>纳爱斯硫磺药皂 90g</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>90g</t>
   </si>
   <si>
     <t>10002.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">上海药皂  125克 </t>
+    <t>上海药皂 125克</t>
+  </si>
+  <si>
+    <t>125克</t>
   </si>
   <si>
     <t>10060.jpg</t>
@@ -197,7 +218,10 @@
     <t>香皂</t>
   </si>
   <si>
-    <t xml:space="preserve">纳爱斯香皂  125G </t>
+    <t>纳爱斯香皂  125G</t>
+  </si>
+  <si>
+    <t>125G</t>
   </si>
   <si>
     <t>10096.jpg</t>
@@ -206,7 +230,13 @@
     <t>洗衣粉</t>
   </si>
   <si>
-    <t xml:space="preserve">汰渍净白洗衣粉 508克原味 </t>
+    <t>汰渍净白洗衣粉 508g</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>508g</t>
   </si>
   <si>
     <t>10094.jpg</t>
@@ -215,7 +245,13 @@
     <t>爽身粉</t>
   </si>
   <si>
-    <t>六神带粉扑盒装爽身粉150g</t>
+    <t>六神女人爽肤带粉扑爽身粉150g</t>
+  </si>
+  <si>
+    <t>盒</t>
+  </si>
+  <si>
+    <t>150g</t>
   </si>
   <si>
     <t>10101.jpg</t>
@@ -227,64 +263,79 @@
     <t>七日香 柠檬润唇膏 3.5g</t>
   </si>
   <si>
+    <t>3.5g</t>
+  </si>
+  <si>
+    <t>10191.jpg</t>
+  </si>
+  <si>
+    <t>七日香 草梅润唇膏 3.5g</t>
+  </si>
+  <si>
+    <t>10212.jpg</t>
+  </si>
+  <si>
+    <t>沐浴露</t>
+  </si>
+  <si>
+    <t>滋采沐浴露938ml</t>
+  </si>
+  <si>
+    <t>瓶</t>
+  </si>
+  <si>
+    <t>938ml</t>
+  </si>
+  <si>
+    <t>10079.jpg</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>营养奶粉</t>
+  </si>
+  <si>
+    <t>雀巢全家营养甜奶粉 300g</t>
+  </si>
+  <si>
+    <t>300g</t>
+  </si>
+  <si>
+    <t>10119.jpg</t>
+  </si>
+  <si>
+    <t>副食类</t>
+  </si>
+  <si>
+    <t>饮料类</t>
+  </si>
+  <si>
+    <t>纯牛奶</t>
+  </si>
+  <si>
+    <t>伊利纯牛奶250ml</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>10111.jpg</t>
+  </si>
+  <si>
+    <t>常温酸奶</t>
+  </si>
+  <si>
+    <t>伊利优酸乳 250ml</t>
+  </si>
+  <si>
     <t>N;</t>
   </si>
   <si>
-    <t>10191.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">七日香 草梅润唇膏 3.5g </t>
-  </si>
-  <si>
-    <t>10212.jpg</t>
-  </si>
-  <si>
-    <t>沐浴露</t>
-  </si>
-  <si>
-    <t xml:space="preserve">滋采牛奶美白沐浴露938g </t>
-  </si>
-  <si>
-    <t>10079.jpg</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>营养奶粉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雀巢全家营养甜奶粉 300g </t>
-  </si>
-  <si>
-    <t>10119.jpg</t>
-  </si>
-  <si>
-    <t>副食类</t>
-  </si>
-  <si>
-    <t>饮料类</t>
-  </si>
-  <si>
-    <t>纯牛奶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伊利纯牛奶250ml </t>
-  </si>
-  <si>
-    <t>10111.jpg</t>
-  </si>
-  <si>
-    <t>常温酸奶</t>
-  </si>
-  <si>
-    <t>伊利优酸乳250ml</t>
-  </si>
-  <si>
     <t>10226.jpg</t>
   </si>
   <si>
-    <t>营优红枣枸杞酸奶 250ml</t>
+    <t>营优红枣枸杞奶 250ml</t>
   </si>
   <si>
     <t>10013.jpg</t>
@@ -299,13 +350,19 @@
     <t>龙津河白玉花生115G</t>
   </si>
   <si>
+    <t>115G</t>
+  </si>
+  <si>
     <t>10033.jpg</t>
   </si>
   <si>
     <t>陈皮</t>
   </si>
   <si>
-    <t xml:space="preserve">金硕九制陈皮88g </t>
+    <t>金硕九制陈皮88g</t>
+  </si>
+  <si>
+    <t>88g</t>
   </si>
   <si>
     <t>10038.jpg</t>
@@ -317,7 +374,10 @@
     <t>威化饼</t>
   </si>
   <si>
-    <t>甜品二重奏威化饼干120g</t>
+    <t>甜品二重奏威化饼巧克力味120g</t>
+  </si>
+  <si>
+    <t>120g</t>
   </si>
   <si>
     <t>10144.jpg</t>
@@ -326,64 +386,79 @@
     <t>面包</t>
   </si>
   <si>
-    <t>达利园法式软面包360g</t>
+    <t>达利园法式软面包 360g</t>
+  </si>
+  <si>
+    <t>360g</t>
+  </si>
+  <si>
+    <t>10211.jpg</t>
+  </si>
+  <si>
+    <t>蛋卷</t>
+  </si>
+  <si>
+    <t>达利园瑞士卷香蕉味 200g</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>10166.jpg</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+  </si>
+  <si>
+    <t>达利园 蛋黄派 250g</t>
+  </si>
+  <si>
+    <t>250g</t>
+  </si>
+  <si>
+    <t>10165.jpg</t>
+  </si>
+  <si>
+    <t>饼干</t>
+  </si>
+  <si>
+    <t>盼盼肉松饼原味150g/盒</t>
+  </si>
+  <si>
+    <t>10157.jpg</t>
+  </si>
+  <si>
+    <t>其他食品类</t>
+  </si>
+  <si>
+    <t>榨菜</t>
+  </si>
+  <si>
+    <t>乌江涪陵酱香古坛榨菜 80克</t>
+  </si>
+  <si>
+    <t>80克</t>
+  </si>
+  <si>
+    <t>10045.jpg</t>
+  </si>
+  <si>
+    <t>咸菜</t>
+  </si>
+  <si>
+    <t>潮盛贡菜70g</t>
   </si>
   <si>
     <t>袋</t>
   </si>
   <si>
-    <t>10211.jpg</t>
-  </si>
-  <si>
-    <t>蛋卷</t>
-  </si>
-  <si>
-    <t>达利园瑞士蛋卷香蕉味 200g</t>
-  </si>
-  <si>
-    <t>10166.jpg</t>
-  </si>
-  <si>
-    <t>蛋糕</t>
-  </si>
-  <si>
-    <t>达利园蛋黄派250g</t>
-  </si>
-  <si>
-    <t>10165.jpg</t>
-  </si>
-  <si>
-    <t>饼干</t>
-  </si>
-  <si>
-    <t>盼盼肉松饼原味150g</t>
-  </si>
-  <si>
-    <t>10157.jpg</t>
-  </si>
-  <si>
-    <t>其他食品类</t>
-  </si>
-  <si>
-    <t>榨菜</t>
-  </si>
-  <si>
-    <t>乌江涪陵酱香古坛榨菜 80克</t>
-  </si>
-  <si>
-    <t>10045.jpg</t>
-  </si>
-  <si>
-    <t>咸菜</t>
-  </si>
-  <si>
-    <t>潮盛贡菜70g</t>
+    <t>70g</t>
   </si>
   <si>
     <t>10223.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">老干妈香辣菜60g </t>
+    <t>老干妈香辣菜60g</t>
   </si>
   <si>
     <t>10218.jpg</t>
@@ -392,16 +467,16 @@
     <t>牛肉干</t>
   </si>
   <si>
-    <t xml:space="preserve">酷食派牛肉干50g 沙爹味 </t>
+    <t>酷食派牛肉干50g</t>
+  </si>
+  <si>
+    <t>50g</t>
   </si>
   <si>
     <t>10176.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">好侍味都都咖喱牛肉200g </t>
-  </si>
-  <si>
-    <t>200g</t>
+    <t>好侍味都都咖喱牛肉200g</t>
   </si>
   <si>
     <t>10167.jpg</t>
@@ -410,7 +485,7 @@
     <t>辣椒酱</t>
   </si>
   <si>
-    <t xml:space="preserve">小康香辣脆辣椒酱145g </t>
+    <t>小康香辣脆辣椒酱145g</t>
   </si>
   <si>
     <t>145g</t>
@@ -422,13 +497,16 @@
     <t>豆干</t>
   </si>
   <si>
-    <t xml:space="preserve">南北特麻辣豆腐干酱卤味 90g </t>
+    <t>南北特麻辣豆腐干酱卤味 90g</t>
   </si>
   <si>
     <t>10171.jpg</t>
   </si>
   <si>
-    <t>豆干好巴食豆腐干60G 五香味</t>
+    <t>好巴食豆腐干60G 五香味</t>
+  </si>
+  <si>
+    <t>60G</t>
   </si>
   <si>
     <t>10170.jpg</t>
@@ -437,13 +515,19 @@
     <t>蛋</t>
   </si>
   <si>
-    <t xml:space="preserve">贤哥五香鸡蛋双蛋55g </t>
+    <t>贤哥五香鸡蛋双蛋55g</t>
+  </si>
+  <si>
+    <t>55g</t>
   </si>
   <si>
     <t>10231.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">南北特7号盐焗蛋 30g </t>
+    <t>南北特7号盐焗蛋 30g</t>
+  </si>
+  <si>
+    <t>30g</t>
   </si>
   <si>
     <t>10039.jpg</t>
@@ -455,19 +539,28 @@
     <t>年货</t>
   </si>
   <si>
-    <t>顺宝年货黑西瓜子300g</t>
+    <t>顺宝年货黑瓜子300G</t>
+  </si>
+  <si>
+    <t>300G</t>
   </si>
   <si>
     <t>10091.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">洽洽香瓜子308g </t>
+    <t>洽洽香瓜子308g</t>
+  </si>
+  <si>
+    <t>308g</t>
   </si>
   <si>
     <t>10197.jpg</t>
   </si>
   <si>
-    <t>顺宝年货红西瓜子238g</t>
+    <t>顺宝年货红瓜子238G</t>
+  </si>
+  <si>
+    <t>238G</t>
   </si>
   <si>
     <t>10092.jpg</t>
@@ -479,7 +572,7 @@
     <t>芝麻糊</t>
   </si>
   <si>
-    <t>南方黑芝麻糊 360g</t>
+    <t>南方 黑芝麻糊 360g</t>
   </si>
   <si>
     <t>10117.jpg</t>
@@ -491,10 +584,16 @@
     <t>金硕 精选甘蔗白砂糖  188g</t>
   </si>
   <si>
+    <t>188g</t>
+  </si>
+  <si>
     <t>10196.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">太港白砂糖454g </t>
+    <t>太港白砂糖454G</t>
+  </si>
+  <si>
+    <t>454G</t>
   </si>
   <si>
     <t>10214.jpg</t>
@@ -503,7 +602,10 @@
     <t>橡皮擦</t>
   </si>
   <si>
-    <t>晨光MF6302 橡皮擦 混色</t>
+    <t>晨光MF6302橡皮混色 单个</t>
+  </si>
+  <si>
+    <t>单个</t>
   </si>
   <si>
     <t>10062.jpg</t>
@@ -527,6 +629,9 @@
     <t>凯邦魔术贴运动出监用球鞋40码</t>
   </si>
   <si>
+    <t>双</t>
+  </si>
+  <si>
     <t>40码</t>
   </si>
   <si>
@@ -623,6 +728,9 @@
     <t>六神祛痱粉袋装爽身粉75g</t>
   </si>
   <si>
+    <t>75g</t>
+  </si>
+  <si>
     <t>10149.jpg</t>
   </si>
   <si>
@@ -638,6 +746,9 @@
     <t>乌江涪陵榨菜微辣 80G</t>
   </si>
   <si>
+    <t>80G</t>
+  </si>
+  <si>
     <t>10046.jpg</t>
   </si>
   <si>
@@ -665,24 +776,36 @@
     <t>农夫山庄小九制陈皮72g</t>
   </si>
   <si>
+    <t>72g</t>
+  </si>
+  <si>
     <t>10071.jpg</t>
   </si>
   <si>
     <t>农夫山庄小九制蓝莓李果82g</t>
   </si>
   <si>
+    <t>82g</t>
+  </si>
+  <si>
     <t>10070.jpg</t>
   </si>
   <si>
     <t>徐福记新年糖果酥心糖袋装328g</t>
   </si>
   <si>
+    <t>328g</t>
+  </si>
+  <si>
     <t>10077.jpg</t>
   </si>
   <si>
     <t>徐福记新年糖果玉米软糖375g</t>
   </si>
   <si>
+    <t>375g</t>
+  </si>
+  <si>
     <t>10076.jpg</t>
   </si>
   <si>
@@ -692,12 +815,18 @@
     <t>百雀羚凡士林保湿润肤霜 60g</t>
   </si>
   <si>
+    <t>60g</t>
+  </si>
+  <si>
     <t>10083.jpg</t>
   </si>
   <si>
     <t>大宝sod蜜秋保湿滋润面霜100ML</t>
   </si>
   <si>
+    <t>100ML</t>
+  </si>
+  <si>
     <t>10082.jpg</t>
   </si>
   <si>
@@ -707,6 +836,9 @@
     <t>冷酸灵防菌抗敏牙膏110g</t>
   </si>
   <si>
+    <t>110g</t>
+  </si>
+  <si>
     <t>10080.jpg</t>
   </si>
   <si>
@@ -722,6 +854,9 @@
     <t>康师傅竹蔗马蹄 500ml</t>
   </si>
   <si>
+    <t>500ml</t>
+  </si>
+  <si>
     <t>10108.jpg</t>
   </si>
   <si>
@@ -734,12 +869,18 @@
     <t>奕香绿豆饼168g</t>
   </si>
   <si>
+    <t>168g</t>
+  </si>
+  <si>
     <t>10124.jpg</t>
   </si>
   <si>
     <t>佳洁士草本水晶牙膏140g</t>
   </si>
   <si>
+    <t>140g</t>
+  </si>
+  <si>
     <t>10118.jpg</t>
   </si>
   <si>
@@ -749,6 +890,12 @@
     <t>清风B22AFSCN原木金装4层卷纸</t>
   </si>
   <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>单卷</t>
+  </si>
+  <si>
     <t>10133.jpg</t>
   </si>
   <si>
@@ -764,10 +911,16 @@
     <t>莫小希每日坚果沙琪玛128g</t>
   </si>
   <si>
+    <t>128g</t>
+  </si>
+  <si>
     <t>10137.jpg</t>
   </si>
   <si>
-    <t>喜家乐姜汁女生红糖288g</t>
+    <t>喜家乐姜汁红糖288g</t>
+  </si>
+  <si>
+    <t>288g</t>
   </si>
   <si>
     <t>10136.jpg</t>
@@ -779,6 +932,9 @@
     <t>智力奶香原味金典燕麦片480g</t>
   </si>
   <si>
+    <t>480g</t>
+  </si>
+  <si>
     <t>10154.jpg</t>
   </si>
   <si>
@@ -800,18 +956,27 @@
     <t>护舒宝隐型超薄卫生护垫18片</t>
   </si>
   <si>
+    <t>18片</t>
+  </si>
+  <si>
     <t>10155.jpg</t>
   </si>
   <si>
     <t>护舒宝超净棉丝薄日用10片</t>
   </si>
   <si>
+    <t>10片</t>
+  </si>
+  <si>
     <t>10173.jpg</t>
   </si>
   <si>
     <t>蓬盛香港橄榄菜450G</t>
   </si>
   <si>
+    <t>450G</t>
+  </si>
+  <si>
     <t>10172.jpg</t>
   </si>
   <si>
@@ -830,6 +995,9 @@
     <t>心之源纯正天然百花蜂蜜236g</t>
   </si>
   <si>
+    <t>236g</t>
+  </si>
+  <si>
     <t>10194.jpg</t>
   </si>
   <si>
@@ -839,24 +1007,36 @@
     <t>六神喷雾花露水经典原香180ml</t>
   </si>
   <si>
+    <t>180ml</t>
+  </si>
+  <si>
     <t>10193.jpg</t>
   </si>
   <si>
     <t>亮荘黑芝麻滋养洗发水450g</t>
   </si>
   <si>
+    <t>450g</t>
+  </si>
+  <si>
     <t>10192.jpg</t>
   </si>
   <si>
     <t>雀巢脆脆鲨夹心威化巧克力80g</t>
   </si>
   <si>
+    <t>80g</t>
+  </si>
+  <si>
     <t>10190.jpg</t>
   </si>
   <si>
     <t>达利园沙琪玛160g</t>
   </si>
   <si>
+    <t>160g</t>
+  </si>
+  <si>
     <t>10189.jpg</t>
   </si>
   <si>
@@ -866,6 +1046,9 @@
     <t>伊利奶糖片袋装32g</t>
   </si>
   <si>
+    <t>32g</t>
+  </si>
+  <si>
     <t>10188.jpg</t>
   </si>
   <si>
@@ -875,24 +1058,36 @@
     <t>达利园好吃点榛仁苏打饼146g</t>
   </si>
   <si>
+    <t>146g</t>
+  </si>
+  <si>
     <t>10187.jpg</t>
   </si>
   <si>
     <t>华宝台式花生牛轧奶糖180g</t>
   </si>
   <si>
+    <t>180g</t>
+  </si>
+  <si>
     <t>10186.jpg</t>
   </si>
   <si>
     <t>康师傅蛋酥卷醇香味108G</t>
   </si>
   <si>
+    <t>108G</t>
+  </si>
+  <si>
     <t>10185.jpg</t>
   </si>
   <si>
     <t>阿尔发木糖醇沙琪玛255g</t>
   </si>
   <si>
+    <t>255g</t>
+  </si>
+  <si>
     <t>10205.jpg</t>
   </si>
   <si>
@@ -917,6 +1112,9 @@
     <t>旺旺雪饼258g</t>
   </si>
   <si>
+    <t>258g</t>
+  </si>
+  <si>
     <t>10202.jpg</t>
   </si>
   <si>
@@ -932,18 +1130,27 @@
     <t>徐福记金币巧克力袋装192g</t>
   </si>
   <si>
+    <t>192g</t>
+  </si>
+  <si>
     <t>10200.jpg</t>
   </si>
   <si>
     <t>旺旺仙贝258克</t>
   </si>
   <si>
+    <t>258克</t>
+  </si>
+  <si>
     <t>10199.jpg</t>
   </si>
   <si>
     <t>甘源蟹黄青碗豆内小包285g</t>
   </si>
   <si>
+    <t>285g</t>
+  </si>
+  <si>
     <t>10198.jpg</t>
   </si>
   <si>
@@ -971,12 +1178,18 @@
     <t>舒肤佳柠檬清新型香皂108g</t>
   </si>
   <si>
+    <t>108g</t>
+  </si>
+  <si>
     <t>10208.jpg</t>
   </si>
   <si>
     <t>亮莊薰衣草深度滋润沐浴露938g</t>
   </si>
   <si>
+    <t>938g</t>
+  </si>
+  <si>
     <t>10213.jpg</t>
   </si>
   <si>
@@ -989,6 +1202,9 @@
     <t>阿尔发纤缘饼干糖尿病食品225g</t>
   </si>
   <si>
+    <t>225g</t>
+  </si>
+  <si>
     <t>10221.jpg</t>
   </si>
   <si>
@@ -1007,6 +1223,9 @@
     <t>南诺信盐焗鸡翅65g</t>
   </si>
   <si>
+    <t>65g</t>
+  </si>
+  <si>
     <t>10215.jpg</t>
   </si>
   <si>
@@ -1022,6 +1241,9 @@
     <t>智力高钙速容豆奶粉510g</t>
   </si>
   <si>
+    <t>510g</t>
+  </si>
+  <si>
     <t>10225.jpg</t>
   </si>
   <si>
@@ -1037,12 +1259,18 @@
     <t>雀巢丝滑拿铁即饮咖啡268ml</t>
   </si>
   <si>
+    <t>268ml</t>
+  </si>
+  <si>
     <t>10232.jpg</t>
   </si>
   <si>
     <t>双汇火腿肠玉米热狗肠40g*6支</t>
   </si>
   <si>
+    <t>条</t>
+  </si>
+  <si>
     <t>240g</t>
   </si>
   <si>
@@ -1064,6 +1292,9 @@
     <t>桂格即食燕麦片谷物原味1000g</t>
   </si>
   <si>
+    <t>1000g</t>
+  </si>
+  <si>
     <t>10234.jpg</t>
   </si>
   <si>
@@ -1073,7 +1304,10 @@
     <t>10233.jpg</t>
   </si>
   <si>
-    <t>雀巢咖啡原味1+2盒15g*7包/盒</t>
+    <t>雀巢1+2咖啡原味7袋*15g</t>
+  </si>
+  <si>
+    <t>105g</t>
   </si>
   <si>
     <t>10021.jpg</t>
@@ -1480,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <v>20200107</v>
+        <v>20200108</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1573,7 +1807,7 @@
         <v>1.8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1582,7 +1816,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
@@ -1596,24 +1830,28 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>10086</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>1.5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>22</v>
@@ -1627,24 +1865,28 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>10009</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>1.2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>22</v>
@@ -1658,24 +1900,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>10006</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>22</v>
@@ -1689,24 +1935,28 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
         <v>10005</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
@@ -1726,18 +1976,22 @@
         <v>10004</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>22</v>
@@ -1751,24 +2005,26 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
         <v>10003</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
         <v>1.2</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>22</v>
@@ -1776,32 +2032,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2">
         <v>10235</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
         <v>69</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>22</v>
@@ -1809,32 +2067,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
         <v>10236</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2">
         <v>69</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>22</v>
@@ -1842,30 +2102,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2">
         <v>10002</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
@@ -1873,30 +2137,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
         <v>10060</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>22</v>
@@ -1904,30 +2172,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <v>10096</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2">
         <v>4.5</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>22</v>
@@ -1935,30 +2207,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2">
         <v>10094</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>22</v>
@@ -1966,30 +2242,34 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2">
         <v>10101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2">
         <v>9.9</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>22</v>
@@ -1997,32 +2277,34 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2">
         <v>10191</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>22</v>
@@ -2030,32 +2312,34 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2">
         <v>10212</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>22</v>
@@ -2063,30 +2347,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2">
         <v>10079</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F21" s="2">
         <v>19.9</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="I21" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>22</v>
@@ -2094,30 +2382,34 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2">
         <v>10119</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F22" s="2">
         <v>19.9</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>22</v>
@@ -2125,30 +2417,34 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2">
         <v>10111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2">
         <v>2.8</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>22</v>
@@ -2156,32 +2452,34 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2">
         <v>10226</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
@@ -2189,30 +2487,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2">
         <v>10013</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2">
         <v>2.2</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
@@ -2220,30 +2522,34 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2">
         <v>10033</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F26" s="2">
         <v>3.5</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="I26" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>22</v>
@@ -2251,30 +2557,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2">
         <v>10038</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>22</v>
@@ -2282,30 +2592,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2">
         <v>10144</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2">
         <v>7.9</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="I28" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>22</v>
@@ -2313,34 +2627,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2">
         <v>10211</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F29" s="2">
         <v>11.9</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>22</v>
@@ -2348,30 +2662,34 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2">
         <v>10166</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2">
         <v>8.9</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>22</v>
@@ -2379,30 +2697,34 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2">
         <v>10165</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2">
         <v>7.5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="I31" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>22</v>
@@ -2410,30 +2732,34 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2">
         <v>10157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F32" s="2">
         <v>9</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I32" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>22</v>
@@ -2441,30 +2767,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2">
         <v>10045</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I33" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>22</v>
@@ -2472,32 +2802,34 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2">
         <v>10223</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F34" s="2">
         <v>1.5</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>22</v>
@@ -2505,32 +2837,34 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D35" s="2">
         <v>10218</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="F35" s="2">
         <v>1.8</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>22</v>
@@ -2538,32 +2872,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2">
         <v>10176</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F36" s="2">
         <v>10</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H36" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>22</v>
@@ -2571,32 +2907,34 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D37" s="2">
         <v>10167</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F37" s="2">
         <v>10</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
@@ -2604,32 +2942,34 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D38" s="2">
         <v>10248</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F38" s="2">
         <v>8</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H38" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>22</v>
@@ -2637,30 +2977,34 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2">
         <v>10171</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F39" s="2">
         <v>3</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I39" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>22</v>
@@ -2668,30 +3012,34 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2">
         <v>10170</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F40" s="2">
         <v>2.5</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="I40" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -2699,32 +3047,34 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2">
         <v>10231</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F41" s="2">
         <v>2.9</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
@@ -2732,30 +3082,34 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D42" s="2">
         <v>10039</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F42" s="2">
         <v>1.9</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="I42" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>22</v>
@@ -2763,30 +3117,34 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D43" s="2">
         <v>10091</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F43" s="2">
         <v>15</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I43" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
@@ -2794,32 +3152,34 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D44" s="2">
         <v>10197</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="F44" s="2">
         <v>11.9</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>22</v>
@@ -2827,30 +3187,34 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D45" s="2">
         <v>10092</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F45" s="2">
         <v>15</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="I45" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>22</v>
@@ -2858,30 +3222,34 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D46" s="2">
         <v>10117</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="F46" s="2">
         <v>15.9</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="I46" s="2" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>22</v>
@@ -2889,32 +3257,34 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D47" s="2">
         <v>10196</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F47" s="2">
         <v>5</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>22</v>
@@ -2922,32 +3292,34 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2">
         <v>10214</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="F48" s="2">
         <v>8</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" s="2" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>22</v>
@@ -2961,26 +3333,28 @@
         <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="D49" s="2">
         <v>10062</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="F49" s="2">
         <v>1.2</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H49" s="2" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>22</v>
@@ -2988,32 +3362,34 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2">
         <v>10237</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="F50" s="2">
         <v>13.5</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H50" s="2" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
@@ -3021,32 +3397,34 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D51" s="2">
         <v>10246</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F51" s="2">
         <v>39</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H51" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>22</v>
@@ -3054,32 +3432,34 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D52" s="2">
         <v>10245</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F52" s="2">
         <v>39</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H52" s="2" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>22</v>
@@ -3087,32 +3467,34 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D53" s="2">
         <v>10244</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F53" s="2">
         <v>39</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H53" s="2" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>22</v>
@@ -3120,32 +3502,34 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D54" s="2">
         <v>10243</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F54" s="2">
         <v>39</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H54" s="2" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>22</v>
@@ -3153,32 +3537,34 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D55" s="2">
         <v>10251</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="F55" s="2">
         <v>7.5</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H55" s="2" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>22</v>
@@ -3186,32 +3572,34 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D56" s="2">
         <v>10252</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F56" s="2">
         <v>10</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H56" s="2" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>22</v>
@@ -3219,32 +3607,34 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D57" s="2">
         <v>10250</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="F57" s="2">
         <v>10</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H57" s="2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
@@ -3252,32 +3642,34 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D58" s="2">
         <v>10249</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F58" s="2">
         <v>9.9</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>22</v>
@@ -3285,32 +3677,34 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D59" s="2">
         <v>10247</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="F59" s="2">
         <v>6</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="H59" s="2" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>22</v>
@@ -3318,32 +3712,34 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D60" s="2">
         <v>10253</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F60" s="2">
         <v>9.9</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H60" s="2" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>22</v>
@@ -3351,30 +3747,34 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2">
         <v>10149</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="F61" s="2">
         <v>5</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="I61" s="2" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>22</v>
@@ -3382,30 +3782,34 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D62" s="2">
         <v>10140</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="F62" s="2">
         <v>5.8</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I62" s="2" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>22</v>
@@ -3413,30 +3817,34 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D63" s="2">
         <v>10046</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="I63" s="2" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>22</v>
@@ -3444,30 +3852,34 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2">
         <v>10030</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F64" s="2">
         <v>6.5</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="I64" s="2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>22</v>
@@ -3475,30 +3887,34 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="D65" s="2">
         <v>10019</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="F65" s="2">
         <v>19</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="I65" s="2" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>22</v>
@@ -3506,30 +3922,34 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2">
         <v>10034</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="F66" s="2">
         <v>5</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I66" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>22</v>
@@ -3537,32 +3957,34 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D67" s="2">
         <v>10071</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="F67" s="2">
         <v>5</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H67" s="2" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>22</v>
@@ -3570,32 +3992,34 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="D68" s="2">
         <v>10070</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="F68" s="2">
         <v>5.9</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H68" s="2" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>22</v>
@@ -3603,30 +4027,34 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D69" s="2">
         <v>10077</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="F69" s="2">
         <v>19.9</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="I69" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
@@ -3634,30 +4062,34 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D70" s="2">
         <v>10076</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F70" s="2">
         <v>19.5</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="I70" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>22</v>
@@ -3665,30 +4097,34 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="D71" s="2">
         <v>10083</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="F71" s="2">
         <v>9.9</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="I71" s="2" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>22</v>
@@ -3696,30 +4132,34 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="D72" s="2">
         <v>10082</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F72" s="2">
         <v>9.9</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="I72" s="2" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>22</v>
@@ -3727,30 +4167,34 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="D73" s="2">
         <v>10080</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F73" s="2">
         <v>6.9</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="I73" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>22</v>
@@ -3758,30 +4202,34 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2">
         <v>10095</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="F74" s="2">
         <v>5</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I74" s="2" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>22</v>
@@ -3789,30 +4237,34 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="D75" s="2">
         <v>10108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="F75" s="2">
         <v>2.9</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="I75" s="2" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>22</v>
@@ -3820,30 +4272,34 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="D76" s="2">
         <v>10107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="F76" s="2">
         <v>2.9</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="I76" s="2" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>22</v>
@@ -3851,30 +4307,34 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D77" s="2">
         <v>10124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="F77" s="2">
         <v>5.5</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="I77" s="2" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>22</v>
@@ -3882,30 +4342,34 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="D78" s="2">
         <v>10118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="F78" s="2">
         <v>5.9</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="I78" s="2" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>22</v>
@@ -3913,30 +4377,34 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D79" s="2">
         <v>10133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="F79" s="2">
         <v>2.5</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="I79" s="2" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>22</v>
@@ -3944,30 +4412,34 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2">
         <v>10139</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="F80" s="2">
         <v>9</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="I80" s="2" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>22</v>
@@ -3975,30 +4447,34 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="D81" s="2">
         <v>10137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="F81" s="2">
         <v>7.5</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="I81" s="2" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>22</v>
@@ -4006,30 +4482,34 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2">
         <v>10136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F82" s="2">
         <v>5.8</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="I82" s="2" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>22</v>
@@ -4037,30 +4517,34 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D83" s="2">
         <v>10154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="F83" s="2">
         <v>19.9</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="I83" s="2" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>22</v>
@@ -4068,30 +4552,34 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D84" s="2">
         <v>10153</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="F84" s="2">
         <v>19.9</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="I84" s="2" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>22</v>
@@ -4099,30 +4587,34 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D85" s="2">
         <v>10158</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="F85" s="2">
         <v>10</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="I85" s="2" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>22</v>
@@ -4130,30 +4622,34 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="D86" s="2">
         <v>10155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="F86" s="2">
         <v>9.9</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="I86" s="2" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>22</v>
@@ -4161,30 +4657,34 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="D87" s="2">
         <v>10173</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="F87" s="2">
         <v>9.9</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="G87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="I87" s="2" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>22</v>
@@ -4192,30 +4692,34 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D88" s="2">
         <v>10172</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="F88" s="2">
         <v>12</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="I88" s="2" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>22</v>
@@ -4223,32 +4727,34 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="D89" s="2">
         <v>10195</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="F89" s="2">
         <v>14.8</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H89" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>22</v>
@@ -4256,32 +4762,34 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="D90" s="2">
         <v>10194</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="F90" s="2">
         <v>15.9</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H90" s="2" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>22</v>
@@ -4289,32 +4797,34 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="D91" s="2">
         <v>10193</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="F91" s="2">
         <v>17</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H91" s="2" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>22</v>
@@ -4322,32 +4832,34 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D92" s="2">
         <v>10192</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="F92" s="2">
         <v>20</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H92" s="2" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
@@ -4355,32 +4867,34 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D93" s="2">
         <v>10190</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="F93" s="2">
         <v>5.9</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H93" s="2" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
@@ -4388,32 +4902,34 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="D94" s="2">
         <v>10189</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F94" s="2">
         <v>6.9</v>
       </c>
-      <c r="G94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H94" s="2" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>22</v>
@@ -4421,32 +4937,34 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="D95" s="2">
         <v>10188</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="F95" s="2">
         <v>3.9</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H95" s="2" t="s">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>22</v>
@@ -4454,32 +4972,34 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="D96" s="2">
         <v>10187</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="F96" s="2">
         <v>5</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H96" s="2" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>22</v>
@@ -4487,32 +5007,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="D97" s="2">
         <v>10186</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="F97" s="2">
         <v>8</v>
       </c>
-      <c r="G97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H97" s="2" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>22</v>
@@ -4520,32 +5042,34 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D98" s="2">
         <v>10185</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="F98" s="2">
         <v>9</v>
       </c>
-      <c r="G98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H98" s="2" t="s">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>22</v>
@@ -4553,32 +5077,34 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="D99" s="2">
         <v>10205</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="F99" s="2">
         <v>13.5</v>
       </c>
-      <c r="G99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H99" s="2" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>22</v>
@@ -4586,32 +5112,34 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="D100" s="2">
         <v>10204</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="F100" s="2">
         <v>1.9</v>
       </c>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H100" s="2" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>22</v>
@@ -4619,32 +5147,34 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="D101" s="2">
         <v>10203</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="F101" s="2">
         <v>9.9</v>
       </c>
-      <c r="G101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H101" s="2" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>22</v>
@@ -4652,32 +5182,34 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D102" s="2">
         <v>10202</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="F102" s="2">
         <v>15</v>
       </c>
-      <c r="G102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H102" s="2" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>22</v>
@@ -4685,32 +5217,34 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="D103" s="2">
         <v>10201</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="F103" s="2">
         <v>9.9</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H103" s="2" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>22</v>
@@ -4718,32 +5252,34 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D104" s="2">
         <v>10200</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="F104" s="2">
         <v>19.9</v>
       </c>
-      <c r="G104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H104" s="2" t="s">
-        <v>70</v>
+        <v>371</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>22</v>
@@ -4751,32 +5287,34 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D105" s="2">
         <v>10199</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="F105" s="2">
         <v>15</v>
       </c>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H105" s="2" t="s">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>22</v>
@@ -4784,32 +5322,34 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D106" s="2">
         <v>10198</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="F106" s="2">
         <v>15.9</v>
       </c>
-      <c r="G106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H106" s="2" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>22</v>
@@ -4823,26 +5363,28 @@
         <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="2">
         <v>10206</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="F107" s="2">
         <v>1.2</v>
       </c>
-      <c r="G107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H107" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>22</v>
@@ -4850,32 +5392,34 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="D108" s="2">
         <v>10210</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="F108" s="2">
         <v>19.9</v>
       </c>
-      <c r="G108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>22</v>
@@ -4883,32 +5427,34 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="D109" s="2">
         <v>10209</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="F109" s="2">
         <v>19.9</v>
       </c>
-      <c r="G109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H109" s="2" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>22</v>
@@ -4916,32 +5462,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D110" s="2">
         <v>10208</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="F110" s="2">
         <v>4.9</v>
       </c>
-      <c r="G110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H110" s="2" t="s">
-        <v>70</v>
+        <v>387</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>22</v>
@@ -4949,32 +5497,34 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D111" s="2">
         <v>10213</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="F111" s="2">
         <v>19.9</v>
       </c>
-      <c r="G111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H111" s="2" t="s">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>22</v>
@@ -4982,32 +5532,34 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="D112" s="2">
         <v>10222</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="F112" s="2">
         <v>2</v>
       </c>
-      <c r="G112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="H112" s="2" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>22</v>
@@ -5015,32 +5567,34 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="D113" s="2">
         <v>10221</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="F113" s="2">
         <v>12.5</v>
       </c>
-      <c r="G113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H113" s="2" t="s">
-        <v>70</v>
+        <v>395</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>22</v>
@@ -5048,32 +5602,34 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D114" s="2">
         <v>10220</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="F114" s="2">
         <v>30</v>
       </c>
-      <c r="G114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H114" s="2" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>22</v>
@@ -5081,32 +5637,34 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="D115" s="2">
         <v>10219</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="F115" s="2">
         <v>5</v>
       </c>
-      <c r="G115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H115" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>22</v>
@@ -5114,32 +5672,34 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="D116" s="2">
         <v>10215</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="F116" s="2">
         <v>9.9</v>
       </c>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H116" s="2" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>22</v>
@@ -5147,32 +5707,34 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="D117" s="2">
         <v>10217</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="F117" s="2">
         <v>11</v>
       </c>
-      <c r="G117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H117" s="2" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>22</v>
@@ -5180,32 +5742,34 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="D118" s="2">
         <v>10225</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="F118" s="2">
         <v>17.9</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H118" s="2" t="s">
-        <v>70</v>
+        <v>408</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>22</v>
@@ -5213,32 +5777,34 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D119" s="2">
         <v>10224</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="F119" s="2">
         <v>2.8</v>
       </c>
-      <c r="G119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H119" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>22</v>
@@ -5246,32 +5812,34 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="D120" s="2">
         <v>10232</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="F120" s="2">
         <v>5.9</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H120" s="2" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>22</v>
@@ -5279,32 +5847,34 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="D121" s="2">
         <v>10229</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="F121" s="2">
         <v>9.9</v>
       </c>
-      <c r="G121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="H121" s="2" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>22</v>
@@ -5312,32 +5882,34 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="D122" s="2">
         <v>10228</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="F122" s="2">
         <v>9</v>
       </c>
-      <c r="G122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H122" s="2" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>22</v>
@@ -5345,32 +5917,34 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>293</v>
+        <v>358</v>
       </c>
       <c r="D123" s="2">
         <v>10227</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="F123" s="2">
         <v>2.9</v>
       </c>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H123" s="2" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>22</v>
@@ -5378,32 +5952,34 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="D124" s="2">
         <v>10234</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="F124" s="2">
         <v>16.8</v>
       </c>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H124" s="2" t="s">
-        <v>70</v>
+        <v>425</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>22</v>
@@ -5411,32 +5987,34 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="D125" s="2">
         <v>10233</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="F125" s="2">
         <v>18.8</v>
       </c>
-      <c r="G125" s="2"/>
+      <c r="G125" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="H125" s="2" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>22</v>
@@ -5444,30 +6022,34 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="D126" s="2">
         <v>10021</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="F126" s="2">
         <v>9.9</v>
       </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="G126" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="I126" s="2" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>22</v>
@@ -5475,7 +6057,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
